--- a/wcsm9automationproject/src/main/resource/LoginData.xlsx
+++ b/wcsm9automationproject/src/main/resource/LoginData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\repo\wcsm9automationproject\src\main\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FD1437-7AFE-4C02-AA69-AFD7737E5484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EA5767-31F7-4065-82F1-86D54001F18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="validcreads" sheetId="1" r:id="rId1"/>
     <sheet name="invalidcreads" sheetId="2" r:id="rId2"/>
+    <sheet name="usercreads" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>UserName</t>
   </si>
@@ -47,6 +48,24 @@
   </si>
   <si>
     <t>manager</t>
+  </si>
+  <si>
+    <t>Employeename</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>XYZ</t>
   </si>
 </sst>
 </file>
@@ -389,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -404,7 +423,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -424,7 +443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672D2551-CEB4-4232-AE90-FD97DFCCFC9D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -452,4 +471,52 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6668DFF5-0961-4303-AAE5-B5BDBF939BF8}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>1234567</v>
+      </c>
+      <c r="D2">
+        <v>1234567</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>